--- a/SchedulingData/dynamic14/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.52</v>
+        <v>55.68</v>
       </c>
       <c r="E2" t="n">
-        <v>25.688</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.16</v>
+        <v>48.3</v>
       </c>
       <c r="E3" t="n">
-        <v>27.264</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>66.76000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.524</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>55.68</v>
       </c>
       <c r="D5" t="n">
-        <v>61.6</v>
+        <v>100.64</v>
       </c>
       <c r="E5" t="n">
-        <v>25.52</v>
+        <v>24.236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44.16</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>91.42</v>
+        <v>61.76</v>
       </c>
       <c r="E6" t="n">
-        <v>24.668</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84.52</v>
+        <v>61.76</v>
       </c>
       <c r="D7" t="n">
-        <v>129.32</v>
+        <v>115.66</v>
       </c>
       <c r="E7" t="n">
-        <v>21.848</v>
+        <v>23.764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61.6</v>
+        <v>48.3</v>
       </c>
       <c r="D8" t="n">
-        <v>124.96</v>
+        <v>103.3</v>
       </c>
       <c r="E8" t="n">
-        <v>22.304</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66.76000000000001</v>
+        <v>103.3</v>
       </c>
       <c r="D9" t="n">
-        <v>127.18</v>
+        <v>184.4</v>
       </c>
       <c r="E9" t="n">
-        <v>23.612</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="D10" t="n">
-        <v>66.2</v>
+        <v>121.06</v>
       </c>
       <c r="E10" t="n">
-        <v>26.04</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.32</v>
+        <v>184.4</v>
       </c>
       <c r="D11" t="n">
-        <v>222.18</v>
+        <v>260.3</v>
       </c>
       <c r="E11" t="n">
-        <v>18.152</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>100.64</v>
       </c>
       <c r="D12" t="n">
-        <v>39.5</v>
+        <v>163.78</v>
       </c>
       <c r="E12" t="n">
-        <v>27.24</v>
+        <v>21.012</v>
       </c>
     </row>
     <row r="13">
@@ -675,112 +675,112 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>127.18</v>
+        <v>163.78</v>
       </c>
       <c r="D13" t="n">
-        <v>176.96</v>
+        <v>205.94</v>
       </c>
       <c r="E13" t="n">
-        <v>19.764</v>
+        <v>18.416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>124.96</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>172.06</v>
+        <v>57.12</v>
       </c>
       <c r="E14" t="n">
-        <v>19.224</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.5</v>
+        <v>260.3</v>
       </c>
       <c r="D15" t="n">
-        <v>91.54000000000001</v>
+        <v>303.86</v>
       </c>
       <c r="E15" t="n">
-        <v>23.656</v>
+        <v>9.784000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.2</v>
+        <v>99.52</v>
       </c>
       <c r="E16" t="n">
-        <v>21.96</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>123.2</v>
+        <v>115.66</v>
       </c>
       <c r="D17" t="n">
-        <v>176.96</v>
+        <v>191.06</v>
       </c>
       <c r="E17" t="n">
-        <v>18.704</v>
+        <v>20.804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>172.06</v>
+        <v>205.94</v>
       </c>
       <c r="D18" t="n">
-        <v>210.82</v>
+        <v>250.02</v>
       </c>
       <c r="E18" t="n">
-        <v>16.488</v>
+        <v>16.128</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>91.42</v>
+        <v>57.12</v>
       </c>
       <c r="D19" t="n">
-        <v>149.96</v>
+        <v>110.86</v>
       </c>
       <c r="E19" t="n">
-        <v>20.924</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.96</v>
+        <v>110.86</v>
       </c>
       <c r="D20" t="n">
-        <v>233.48</v>
+        <v>162.86</v>
       </c>
       <c r="E20" t="n">
-        <v>14.672</v>
+        <v>19.144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>176.96</v>
+        <v>303.86</v>
       </c>
       <c r="D21" t="n">
-        <v>246.86</v>
+        <v>342.06</v>
       </c>
       <c r="E21" t="n">
-        <v>16.384</v>
+        <v>7.584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>222.18</v>
+        <v>162.86</v>
       </c>
       <c r="D22" t="n">
-        <v>285.42</v>
+        <v>226.2</v>
       </c>
       <c r="E22" t="n">
-        <v>14.928</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>91.54000000000001</v>
+        <v>342.06</v>
       </c>
       <c r="D23" t="n">
-        <v>144.44</v>
+        <v>393.68</v>
       </c>
       <c r="E23" t="n">
-        <v>19.496</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>149.96</v>
+        <v>226.2</v>
       </c>
       <c r="D24" t="n">
-        <v>222.86</v>
+        <v>278.58</v>
       </c>
       <c r="E24" t="n">
-        <v>16.244</v>
+        <v>11.812</v>
       </c>
     </row>
     <row r="25">
@@ -903,93 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>246.86</v>
+        <v>250.02</v>
       </c>
       <c r="D25" t="n">
-        <v>308.76</v>
+        <v>297.64</v>
       </c>
       <c r="E25" t="n">
-        <v>12.304</v>
+        <v>13.476</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>210.82</v>
+        <v>121.06</v>
       </c>
       <c r="D26" t="n">
-        <v>267.44</v>
+        <v>196.88</v>
       </c>
       <c r="E26" t="n">
-        <v>12.456</v>
+        <v>19.232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>308.76</v>
+        <v>196.88</v>
       </c>
       <c r="D27" t="n">
-        <v>356.46</v>
+        <v>264.48</v>
       </c>
       <c r="E27" t="n">
-        <v>8.664</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>356.46</v>
+        <v>191.06</v>
       </c>
       <c r="D28" t="n">
-        <v>411.64</v>
+        <v>284.2</v>
       </c>
       <c r="E28" t="n">
-        <v>5.276</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>233.48</v>
+        <v>99.52</v>
       </c>
       <c r="D29" t="n">
-        <v>298.44</v>
+        <v>153.28</v>
       </c>
       <c r="E29" t="n">
-        <v>12.296</v>
+        <v>22.432</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>144.44</v>
+        <v>284.2</v>
       </c>
       <c r="D30" t="n">
-        <v>219.94</v>
+        <v>348.8</v>
       </c>
       <c r="E30" t="n">
-        <v>16.536</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>411.64</v>
+        <v>153.28</v>
       </c>
       <c r="D31" t="n">
-        <v>481.04</v>
+        <v>215.28</v>
       </c>
       <c r="E31" t="n">
-        <v>0.956</v>
+        <v>18.352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>481.04</v>
+        <v>278.58</v>
       </c>
       <c r="D32" t="n">
-        <v>556.13</v>
+        <v>317.16</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>9.084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>222.86</v>
+        <v>297.64</v>
       </c>
       <c r="D33" t="n">
-        <v>281.26</v>
+        <v>352.98</v>
       </c>
       <c r="E33" t="n">
-        <v>12.524</v>
+        <v>10.572</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>298.44</v>
+        <v>317.16</v>
       </c>
       <c r="D34" t="n">
-        <v>374.16</v>
+        <v>380.26</v>
       </c>
       <c r="E34" t="n">
-        <v>9.304</v>
+        <v>4.404</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>285.42</v>
+        <v>264.48</v>
       </c>
       <c r="D35" t="n">
-        <v>352.14</v>
+        <v>300.98</v>
       </c>
       <c r="E35" t="n">
-        <v>10.896</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>352.14</v>
+        <v>215.28</v>
       </c>
       <c r="D36" t="n">
-        <v>388.74</v>
+        <v>262.42</v>
       </c>
       <c r="E36" t="n">
-        <v>8.856</v>
+        <v>14.768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>219.94</v>
+        <v>352.98</v>
       </c>
       <c r="D37" t="n">
-        <v>268.32</v>
+        <v>391.86</v>
       </c>
       <c r="E37" t="n">
-        <v>13.808</v>
+        <v>7.324</v>
       </c>
     </row>
     <row r="38">
@@ -1150,207 +1150,207 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>268.32</v>
+        <v>348.8</v>
       </c>
       <c r="D38" t="n">
-        <v>320.7</v>
+        <v>409.86</v>
       </c>
       <c r="E38" t="n">
-        <v>9.699999999999999</v>
+        <v>9.724</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>556.13</v>
+        <v>300.98</v>
       </c>
       <c r="D39" t="n">
-        <v>627.79</v>
+        <v>361.68</v>
       </c>
       <c r="E39" t="n">
-        <v>26.984</v>
+        <v>8.592000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>388.74</v>
+        <v>262.42</v>
       </c>
       <c r="D40" t="n">
-        <v>439.7</v>
+        <v>326.92</v>
       </c>
       <c r="E40" t="n">
-        <v>6.36</v>
+        <v>10.928</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>281.26</v>
+        <v>409.86</v>
       </c>
       <c r="D41" t="n">
-        <v>324.46</v>
+        <v>469.98</v>
       </c>
       <c r="E41" t="n">
-        <v>10.324</v>
+        <v>6.812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>267.44</v>
+        <v>469.98</v>
       </c>
       <c r="D42" t="n">
-        <v>326.22</v>
+        <v>546.1799999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>10.168</v>
+        <v>4.772</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>374.16</v>
+        <v>326.92</v>
       </c>
       <c r="D43" t="n">
-        <v>430.26</v>
+        <v>416.2</v>
       </c>
       <c r="E43" t="n">
-        <v>6.784</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>324.46</v>
+        <v>416.2</v>
       </c>
       <c r="D44" t="n">
-        <v>411.36</v>
+        <v>486.1</v>
       </c>
       <c r="E44" t="n">
-        <v>7.204</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>439.7</v>
+        <v>486.1</v>
       </c>
       <c r="D45" t="n">
-        <v>502.52</v>
+        <v>538.4</v>
       </c>
       <c r="E45" t="n">
-        <v>3.708</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>430.26</v>
+        <v>538.4</v>
       </c>
       <c r="D46" t="n">
-        <v>488.8</v>
+        <v>609.24</v>
       </c>
       <c r="E46" t="n">
-        <v>3.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>326.22</v>
+        <v>361.68</v>
       </c>
       <c r="D47" t="n">
-        <v>407.02</v>
+        <v>407.94</v>
       </c>
       <c r="E47" t="n">
-        <v>5.668</v>
+        <v>6.096</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>407.02</v>
+        <v>546.1799999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>467.26</v>
+        <v>604.4400000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>2.764</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>488.8</v>
+        <v>393.68</v>
       </c>
       <c r="D49" t="n">
-        <v>549.2</v>
+        <v>463.68</v>
       </c>
       <c r="E49" t="n">
-        <v>0.14</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="50">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>549.2</v>
+        <v>463.68</v>
       </c>
       <c r="D50" t="n">
-        <v>615.92</v>
+        <v>530.42</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1393,59 +1393,59 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>502.52</v>
+        <v>391.86</v>
       </c>
       <c r="D51" t="n">
-        <v>586.7</v>
+        <v>435.32</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>4.108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>586.7</v>
+        <v>435.32</v>
       </c>
       <c r="D52" t="n">
-        <v>650.84</v>
+        <v>491.94</v>
       </c>
       <c r="E52" t="n">
-        <v>26.256</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>320.7</v>
+        <v>491.94</v>
       </c>
       <c r="D53" t="n">
-        <v>415.5</v>
+        <v>593.29</v>
       </c>
       <c r="E53" t="n">
-        <v>4.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>411.36</v>
+        <v>380.26</v>
       </c>
       <c r="D54" t="n">
-        <v>474.74</v>
+        <v>438.66</v>
       </c>
       <c r="E54" t="n">
-        <v>3.956</v>
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>438.66</v>
+      </c>
+      <c r="D55" t="n">
+        <v>528.79</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
